--- a/EssilorLuxottica Projects/LUX - 7.0 - Process SAP Bank File/Data/Config.xlsx
+++ b/EssilorLuxottica Projects/LUX - 7.0 - Process SAP Bank File/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.0_Running Bank Files in SAP\LUX - 7.0 - Process SAP Bank File\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF82A48-B675-4630-97DA-ABC836DC24C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1998D4-0F20-43D7-93D9-86DB7DBBA135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -186,9 +186,6 @@
     <t>strSAPExecutable</t>
   </si>
   <si>
-    <t>C:\Program Files (x86)\SAP\FrontEnd\SapGui\saplogon.exe</t>
-  </si>
-  <si>
     <t>strComponentRoot</t>
   </si>
   <si>
@@ -210,16 +207,19 @@
     <t>strFolderToMove</t>
   </si>
   <si>
-    <t>\\LRRBTUIPFSP100\Profiles\Uipath_26\Desktop\EssilorLuxottica Projects\LUX-7.0_Running Bank Files in SAP\LUX - 7.0 - Retrieve SAP Bank Files\Data\Output\</t>
-  </si>
-  <si>
     <t>strNotepadExecutable</t>
   </si>
   <si>
     <t>strFindBankRoutingNumber</t>
   </si>
   <si>
-    <t>C:\windows\system32\Notepad.exe</t>
+    <t>Ess.LUX-7.0_BankFilesFolderToMove</t>
+  </si>
+  <si>
+    <t>Ess.ALL_SAPExecutable</t>
+  </si>
+  <si>
+    <t>Ess.ALL_NotepadExecutable</t>
   </si>
 </sst>
 </file>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -674,52 +674,33 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B9">
+        <v>111000012</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12">
-        <v>111000012</v>
-      </c>
-    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1706,9 +1687,6 @@
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{960F3D2B-1A6F-4E6D-BA8D-71F0C7C70F0B}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1717,7 +1695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2932,7 +2910,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2977,15 +2955,36 @@
     <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
